--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5998E4BF-5108-4ACD-813D-06279178C933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21BDF0-1CCA-44F9-8C80-D2827D66D90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -293,10 +293,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>照</t>
     <rPh sb="0" eb="1">
       <t>テル</t>
@@ -475,6 +471,32 @@
     <rPh sb="5" eb="6">
       <t>マモ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーキネン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垣根</t>
+    <rPh sb="0" eb="2">
+      <t>カキネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天狗</t>
+    <rPh sb="0" eb="2">
+      <t>テング</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティング</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -800,15 +822,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J15"/>
+  <dimension ref="A5:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
     <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -844,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -876,167 +897,181 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="I9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>29</v>
       </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="E13" t="s">
-        <v>41</v>
       </c>
       <c r="F13" t="s">
         <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA21BDF0-1CCA-44F9-8C80-D2827D66D90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D05FC-0EF5-4E36-9E7D-F01CF3143189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -497,6 +497,36 @@
   </si>
   <si>
     <t>ティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翻訳魔法</t>
+    <rPh sb="0" eb="2">
+      <t>ホンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見ざる聞かざる言わざる</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -822,9 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J16"/>
+  <dimension ref="A5:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1074,6 +1106,17 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D05FC-0EF5-4E36-9E7D-F01CF3143189}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC5AAD-42FB-44BC-9182-220796CB5664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -527,6 +527,31 @@
     <rPh sb="7" eb="8">
       <t>イ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五本指</t>
+    <rPh sb="0" eb="2">
+      <t>ゴホン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>息吹</t>
+    <rPh sb="0" eb="2">
+      <t>イブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレス（バナー）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イフキ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -852,17 +877,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J17"/>
+  <dimension ref="A5:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="17.796875" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
     <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1093,27 +1118,41 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E19" t="s">
         <v>47</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="5:7">
-      <c r="E17" t="s">
+    <row r="20" spans="1:7">
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F20" t="s">
         <v>64</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G20" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC5AAD-42FB-44BC-9182-220796CB5664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5409A4-7FE0-48EE-82B1-4475299D7480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -552,6 +552,14 @@
   </si>
   <si>
     <t>イフキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いなす</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イナス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -877,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J20"/>
+  <dimension ref="A5:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -1047,112 +1055,120 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" t="s">
-        <v>41</v>
       </c>
       <c r="G14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="C16" t="s">
+    <row r="17" spans="1:7">
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="E20" t="s">
+    <row r="21" spans="1:7">
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>64</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA5409A4-7FE0-48EE-82B1-4475299D7480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4543F-34F1-4CE6-9B81-0721A4114E7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -560,6 +560,27 @@
   </si>
   <si>
     <t>イナス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絞首</t>
+    <rPh sb="1" eb="2">
+      <t>クビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>首絞め</t>
+    <rPh sb="0" eb="1">
+      <t>クビ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -885,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J21"/>
+  <dimension ref="A5:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1162,13 +1183,24 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="E21" t="s">
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>64</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4543F-34F1-4CE6-9B81-0721A4114E7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E352C-5C15-4985-AE02-69179757AE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E352C-5C15-4985-AE02-69179757AE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E62E6D-718B-42E4-BBEF-91DEFCFADA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4140" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -580,6 +580,37 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辻風</t>
+    <rPh sb="0" eb="1">
+      <t>ツジ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツジゼ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イフキの螺旋バージョン（ザケルガのイメージ）</t>
+    <rPh sb="4" eb="6">
+      <t>ラセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>羅刹掌</t>
+    <rPh sb="0" eb="2">
+      <t>ラセツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テノヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -908,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1168,6 +1199,20 @@
         <v>65</v>
       </c>
     </row>
+    <row r="18" spans="1:7">
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>48</v>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E62E6D-718B-42E4-BBEF-91DEFCFADA7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3548F-2718-4F68-A592-6645D82380CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -584,20 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>辻風</t>
-    <rPh sb="0" eb="1">
-      <t>ツジ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カゼ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツジゼ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イフキの螺旋バージョン（ザケルガのイメージ）</t>
     <rPh sb="4" eb="6">
       <t>ラセン</t>
@@ -611,6 +597,95 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>テノヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迦楼羅</t>
+    <rPh sb="0" eb="3">
+      <t>カルラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツムージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旋毛風</t>
+    <rPh sb="0" eb="2">
+      <t>ツムジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円盤を投げる</t>
+    <rPh sb="0" eb="2">
+      <t>エンバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミタマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御玉</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレネード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリスビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マツバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松葉　マッチ</t>
+    <rPh sb="0" eb="2">
+      <t>マツバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指慣らし</t>
+    <rPh sb="0" eb="1">
+      <t>ユビ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボールを投げる</t>
+    <rPh sb="4" eb="5">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -937,14 +1012,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J22"/>
+  <dimension ref="A5:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="17.796875" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" customWidth="1"/>
@@ -1201,51 +1277,93 @@
     </row>
     <row r="18" spans="1:7">
       <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s">
-        <v>77</v>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="E22" t="s">
+    <row r="25" spans="1:7">
+      <c r="E25" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G25" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD3548F-2718-4F68-A592-6645D82380CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCAF0C-4680-46BE-BDBD-5E279189B76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -687,6 +687,57 @@
     <rPh sb="4" eb="5">
       <t>ナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スミル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>澄んだ流れ</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射　gun</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイガン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水鉄砲</t>
+    <rPh sb="0" eb="3">
+      <t>ミズデッポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トーバリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳</t>
+    <rPh sb="0" eb="1">
+      <t>トバリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリア</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1012,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J25"/>
+  <dimension ref="A5:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1215,155 +1266,189 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>41</v>
       </c>
       <c r="G15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="C18" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E23" t="s">
         <v>85</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" t="s">
         <v>47</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="C24" t="s">
+    <row r="26" spans="1:7">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="E25" t="s">
+    <row r="27" spans="1:7">
+      <c r="E27" t="s">
         <v>63</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F27" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBCAF0C-4680-46BE-BDBD-5E279189B76A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D671C60C-06BC-465F-BB81-E859704047D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -738,6 +738,31 @@
   </si>
   <si>
     <t>バリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シン・アニマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神獣　</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>召喚獣</t>
+    <rPh sb="0" eb="3">
+      <t>ショウカンジュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1063,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J27"/>
+  <dimension ref="A5:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1416,39 +1441,53 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="24" spans="1:7">
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>47</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="C26" t="s">
+    <row r="27" spans="1:7">
+      <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="E27" t="s">
+    <row r="28" spans="1:7">
+      <c r="E28" t="s">
         <v>63</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D671C60C-06BC-465F-BB81-E859704047D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7DA12C-86AA-4B27-922D-3B0F84A4F8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -762,6 +762,21 @@
     <t>召喚獣</t>
     <rPh sb="0" eb="3">
       <t>ショウカンジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アモル・テラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォルカミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天照大御神</t>
+    <rPh sb="0" eb="5">
+      <t>アマテラスオオミカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1088,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J28"/>
+  <dimension ref="A5:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1231,82 +1246,70 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>29</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>51</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="C12" t="s">
+    <row r="13" spans="1:10">
+      <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -1314,180 +1317,203 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>59</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>42</v>
-      </c>
-      <c r="G15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>44</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="C19" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>100</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>102</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="C27" t="s">
+    <row r="28" spans="1:7">
+      <c r="C28" t="s">
         <v>71</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="E28" t="s">
+    <row r="29" spans="1:7">
+      <c r="E29" t="s">
         <v>63</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>64</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>62</v>
       </c>
     </row>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7DA12C-86AA-4B27-922D-3B0F84A4F8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952F952B-320A-4E70-8964-E73ED9B5C456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -777,6 +777,42 @@
     <t>天照大御神</t>
     <rPh sb="0" eb="5">
       <t>アマテラスオオミカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枝</t>
+    <rPh sb="0" eb="1">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツムギ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紡ぎ</t>
+    <rPh sb="0" eb="1">
+      <t>ツム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界をつなげる魔法
+ワームホールを展開する</t>
+    <rPh sb="0" eb="2">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テンカイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -821,8 +857,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1103,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J29"/>
+  <dimension ref="A5:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1517,6 +1556,23 @@
         <v>62</v>
       </c>
     </row>
+    <row r="30" spans="1:7" ht="36">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952F952B-320A-4E70-8964-E73ED9B5C456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E8699D-99F7-4984-BED3-5E0BDE65D773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -781,28 +781,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>枝</t>
-    <rPh sb="0" eb="1">
-      <t>エダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ツムギ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>紡ぎ</t>
-    <rPh sb="0" eb="1">
-      <t>ツム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>世界をつなげる魔法
 ワームホールを展開する</t>
     <rPh sb="0" eb="2">
@@ -813,6 +791,51 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>テンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エニシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縁</t>
+    <rPh sb="0" eb="1">
+      <t>エニシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開く</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手を食い合わせて輪っかに開く。</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1142,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J30"/>
+  <dimension ref="A5:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1545,32 +1568,38 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="E29" t="s">
+    <row r="30" spans="1:7">
+      <c r="E30" t="s">
         <v>63</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>64</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="36">
-      <c r="A30" t="s">
+    <row r="31" spans="1:7" ht="36">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B30" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>110</v>
+      <c r="F31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E8699D-99F7-4984-BED3-5E0BDE65D773}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3024C40-1925-4DCE-A7FD-CD038111EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -837,6 +837,47 @@
     <rPh sb="12" eb="13">
       <t>ヒラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジューン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マート―</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>循</t>
+    <rPh sb="0" eb="1">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>纏う</t>
+    <rPh sb="0" eb="1">
+      <t>マト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハーモ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繁茂</t>
+    <rPh sb="0" eb="2">
+      <t>ハンモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E3%82%B7%E3%83%A3%E3%83%BC%E3%83%9E%E3%83%B3%E5%B0%86%E8%BB%8D%E3%81%AE%E6%9C%A8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クグノチ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -844,7 +885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +898,14 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -877,16 +926,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1165,19 +1217,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J31"/>
+  <dimension ref="A5:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.796875" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10">
@@ -1424,6 +1476,12 @@
       </c>
     </row>
     <row r="17" spans="1:7">
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
@@ -1435,176 +1493,201 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="C21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="C22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="C24" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" t="s">
         <v>99</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>102</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>49</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>47</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="C28" t="s">
+    <row r="29" spans="1:7">
+      <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="E30" t="s">
+    <row r="31" spans="1:7">
+      <c r="E31" t="s">
         <v>63</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>64</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="36">
-      <c r="A31" t="s">
+    <row r="32" spans="1:7" ht="56.25">
+      <c r="A32" t="s">
         <v>107</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" t="s">
         <v>112</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="G33" r:id="rId1" xr:uid="{40EF004A-A775-4C8A-B890-CD15619C1213}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3024C40-1925-4DCE-A7FD-CD038111EC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539CE2B2-D776-49C4-BD0F-C17E74EB5C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -878,6 +878,17 @@
   </si>
   <si>
     <t>クグノチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スアバク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎌</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1219,17 +1230,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.69921875" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10">
@@ -1634,6 +1645,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="31" spans="1:7">
       <c r="E31" t="s">
         <v>63</v>
@@ -1645,7 +1664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="56.25">
+    <row r="32" spans="1:7" ht="36">
       <c r="A32" t="s">
         <v>107</v>
       </c>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539CE2B2-D776-49C4-BD0F-C17E74EB5C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879FAE6-5E28-414D-B518-1A5033161F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
   <si>
     <t>魔法名</t>
     <rPh sb="0" eb="2">
@@ -889,6 +889,21 @@
     <rPh sb="0" eb="1">
       <t>カマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相貌</t>
+    <rPh sb="0" eb="2">
+      <t>ソウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダツー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1228,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:J33"/>
+  <dimension ref="A5:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1701,6 +1716,17 @@
         <v>119</v>
       </c>
     </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>

--- a/異世界もの＿風景からマナ/魔法一覧.xlsx
+++ b/異世界もの＿風景からマナ/魔法一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\novel\novel\異世界もの＿風景からマナ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDrive\Git\novel\異世界もの＿風景からマナ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879FAE6-5E28-414D-B518-1A5033161F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BAB25E-1FD3-4433-BA99-2E00ADF45B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1245,17 +1245,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A5:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="20.8984375" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:10">
@@ -1679,7 +1679,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="36">
+    <row r="32" spans="1:7" ht="56.25">
       <c r="A32" t="s">
         <v>107</v>
       </c>
